--- a/result/cleaned_validity.xlsx
+++ b/result/cleaned_validity.xlsx
@@ -67,7 +67,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -440,6 +440,10 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="28.4" customWidth="1" min="1" max="1"/>
+    <col width="40.4" customWidth="1" min="2" max="2"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">

--- a/result/cleaned_validity.xlsx
+++ b/result/cleaned_validity.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,6 +507,36 @@
         <v>0.7</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>3.715</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>COUNT</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>AVERAGE (SUM/COUNT)</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>0.743</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
